--- a/artfynd/A 2022-2022.xlsx
+++ b/artfynd/A 2022-2022.xlsx
@@ -932,10 +932,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>87582649</v>
+        <v>107297151</v>
       </c>
       <c r="B4" t="n">
-        <v>102173</v>
+        <v>56395</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,43 +948,38 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1898</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Klådris</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Myricaria germanica</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Desv.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Husån, Husådalen, Jmt</t>
+          <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>402456.1552404187</v>
+        <v>401594.4527712342</v>
       </c>
       <c r="R4" t="n">
-        <v>7041830.142488331</v>
+        <v>7042568.212296775</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,7 +1006,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1021,7 +1016,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-08-19</t>
+          <t>2023-03-14</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1031,7 +1026,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Detalj. 1 tuva, den var utan blommor</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,19 +1041,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Lars-Åke Bäckström</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Britta Kjellberg</t>
+          <t>Benny Öwre</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>107297151</v>
+        <v>107297154</v>
       </c>
       <c r="B5" t="n">
         <v>56395</v>
@@ -1094,7 +1089,11 @@
       <c r="I5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1102,10 +1101,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>401594.4527712342</v>
+        <v>401666.7811616177</v>
       </c>
       <c r="R5" t="n">
-        <v>7042568.212296775</v>
+        <v>7042606.201763977</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1179,7 +1178,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107297109</v>
+        <v>107297138</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1220,16 +1219,17 @@
           <t>färska spår</t>
         </is>
       </c>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>402320.7597974094</v>
+        <v>401751.8438891231</v>
       </c>
       <c r="R6" t="n">
-        <v>7042436.364914293</v>
+        <v>7042288.039776031</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1272,6 +1272,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1298,7 +1303,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107297105</v>
+        <v>107297146</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1334,11 +1339,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1346,10 +1347,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>402323.667188072</v>
+        <v>401513.2328704891</v>
       </c>
       <c r="R7" t="n">
-        <v>7042677.163613487</v>
+        <v>7042503.236034375</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1392,6 +1393,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1418,7 +1424,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107297119</v>
+        <v>107297137</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1452,16 +1458,24 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>402822.0443657695</v>
+        <v>401801.9166483635</v>
       </c>
       <c r="R8" t="n">
-        <v>7041997.765195946</v>
+        <v>7042358.90274286</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1504,6 +1518,11 @@
       <c r="AB8" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1530,7 +1549,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>107297108</v>
+        <v>107297134</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1568,20 +1587,19 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>402300.4574869781</v>
+        <v>401930.3541387856</v>
       </c>
       <c r="R9" t="n">
-        <v>7042460.227838016</v>
+        <v>7042489.475528275</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1650,7 +1668,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>107297110</v>
+        <v>107297139</v>
       </c>
       <c r="B10" t="n">
         <v>56395</v>
@@ -1686,21 +1704,18 @@
       <c r="I10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>402329.8708277129</v>
+        <v>401750.5713309544</v>
       </c>
       <c r="R10" t="n">
-        <v>7042412.398069494</v>
+        <v>7042290.313810219</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1743,6 +1758,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1769,10 +1789,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>107297106</v>
+        <v>107297160</v>
       </c>
       <c r="B11" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1785,41 +1805,34 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>402237.9320551881</v>
+        <v>401687.4185329318</v>
       </c>
       <c r="R11" t="n">
-        <v>7042508.17923111</v>
+        <v>7042796.392110216</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1888,7 +1901,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>107297121</v>
+        <v>107297143</v>
       </c>
       <c r="B12" t="n">
         <v>56395</v>
@@ -1929,16 +1942,17 @@
           <t>färska spår</t>
         </is>
       </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>402726.1723272039</v>
+        <v>401583.7834803142</v>
       </c>
       <c r="R12" t="n">
-        <v>7041921.572066993</v>
+        <v>7042382.170078931</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1981,6 +1995,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2007,7 +2026,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>107297154</v>
+        <v>107297140</v>
       </c>
       <c r="B13" t="n">
         <v>56395</v>
@@ -2045,7 +2064,7 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N13" t="inlineStr"/>
@@ -2055,10 +2074,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>401666.7811616177</v>
+        <v>401702.536318419</v>
       </c>
       <c r="R13" t="n">
-        <v>7042606.201763977</v>
+        <v>7042314.590158918</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2132,7 +2151,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>107297138</v>
+        <v>107297132</v>
       </c>
       <c r="B14" t="n">
         <v>56395</v>
@@ -2173,17 +2192,16 @@
           <t>färska spår</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>401751.8438891231</v>
+        <v>401917.91669213</v>
       </c>
       <c r="R14" t="n">
-        <v>7042288.039776031</v>
+        <v>7042274.431142438</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2226,11 +2244,6 @@
       <c r="AB14" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2257,7 +2270,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>107297146</v>
+        <v>107297135</v>
       </c>
       <c r="B15" t="n">
         <v>56395</v>
@@ -2293,7 +2306,11 @@
       <c r="I15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
@@ -2301,10 +2318,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>401513.2328704891</v>
+        <v>401919.762610087</v>
       </c>
       <c r="R15" t="n">
-        <v>7042503.236034375</v>
+        <v>7042436.169578565</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2378,7 +2395,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107297107</v>
+        <v>107297156</v>
       </c>
       <c r="B16" t="n">
         <v>56395</v>
@@ -2412,16 +2429,24 @@
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>402290.3109071227</v>
+        <v>401714.5618179612</v>
       </c>
       <c r="R16" t="n">
-        <v>7042465.008287945</v>
+        <v>7042704.387960113</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2464,6 +2489,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2490,7 +2520,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107297099</v>
+        <v>107297130</v>
       </c>
       <c r="B17" t="n">
         <v>56395</v>
@@ -2530,10 +2560,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>402561.3803218241</v>
+        <v>401881.7838074451</v>
       </c>
       <c r="R17" t="n">
-        <v>7042680.162944488</v>
+        <v>7042132.960267722</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2602,7 +2632,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>107297137</v>
+        <v>107297142</v>
       </c>
       <c r="B18" t="n">
         <v>56395</v>
@@ -2640,7 +2670,7 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N18" t="inlineStr"/>
@@ -2650,10 +2680,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>401801.9166483635</v>
+        <v>401624.999463517</v>
       </c>
       <c r="R18" t="n">
-        <v>7042358.90274286</v>
+        <v>7042354.527245898</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2727,7 +2757,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>107297134</v>
+        <v>107297149</v>
       </c>
       <c r="B19" t="n">
         <v>56395</v>
@@ -2763,21 +2793,18 @@
       <c r="I19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>401930.3541387856</v>
+        <v>401525.2028119719</v>
       </c>
       <c r="R19" t="n">
-        <v>7042489.475528275</v>
+        <v>7042586.44113512</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2820,6 +2847,11 @@
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2846,7 +2878,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>107297113</v>
+        <v>107297155</v>
       </c>
       <c r="B20" t="n">
         <v>56395</v>
@@ -2880,16 +2912,24 @@
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>402284.6929904713</v>
+        <v>401725.3742706156</v>
       </c>
       <c r="R20" t="n">
-        <v>7042354.787127241</v>
+        <v>7042706.735810081</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2932,6 +2972,11 @@
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2958,7 +3003,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>107297111</v>
+        <v>107297136</v>
       </c>
       <c r="B21" t="n">
         <v>56395</v>
@@ -2992,16 +3037,24 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>402322.8264822093</v>
+        <v>401802.9903214265</v>
       </c>
       <c r="R21" t="n">
-        <v>7042416.189506478</v>
+        <v>7042422.78270114</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3044,6 +3097,11 @@
       <c r="AB21" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3070,7 +3128,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>107297139</v>
+        <v>107297150</v>
       </c>
       <c r="B22" t="n">
         <v>56395</v>
@@ -3114,10 +3172,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>401750.5713309544</v>
+        <v>401590.484083398</v>
       </c>
       <c r="R22" t="n">
-        <v>7042290.313810219</v>
+        <v>7042570.12256683</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3191,7 +3249,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>107297124</v>
+        <v>107297152</v>
       </c>
       <c r="B23" t="n">
         <v>56395</v>
@@ -3225,16 +3283,20 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>402513.3883072233</v>
+        <v>401597.2594558771</v>
       </c>
       <c r="R23" t="n">
-        <v>7041959.811238208</v>
+        <v>7042572.147899858</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3277,6 +3339,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3303,10 +3370,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>107297160</v>
+        <v>107297157</v>
       </c>
       <c r="B24" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3319,34 +3386,42 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>401687.4185329318</v>
+        <v>401791.350727173</v>
       </c>
       <c r="R24" t="n">
-        <v>7042796.392110216</v>
+        <v>7042814.636954655</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3389,6 +3464,11 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3415,7 +3495,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>107297114</v>
+        <v>107297141</v>
       </c>
       <c r="B25" t="n">
         <v>56395</v>
@@ -3449,16 +3529,24 @@
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>402339.5343312943</v>
+        <v>401689.5557609996</v>
       </c>
       <c r="R25" t="n">
-        <v>7042289.638985216</v>
+        <v>7042314.543681278</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3501,6 +3589,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3527,7 +3620,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>107297143</v>
+        <v>107297147</v>
       </c>
       <c r="B26" t="n">
         <v>56395</v>
@@ -3565,7 +3658,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N26" t="inlineStr"/>
@@ -3575,10 +3668,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>401583.7834803142</v>
+        <v>401498.9477831295</v>
       </c>
       <c r="R26" t="n">
-        <v>7042382.170078931</v>
+        <v>7042518.873282764</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3652,7 +3745,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107297140</v>
+        <v>107297131</v>
       </c>
       <c r="B27" t="n">
         <v>56395</v>
@@ -3690,20 +3783,19 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>401702.536318419</v>
+        <v>401848.5353151028</v>
       </c>
       <c r="R27" t="n">
-        <v>7042314.590158918</v>
+        <v>7042230.530400435</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3746,11 +3838,6 @@
       <c r="AB27" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3777,10 +3864,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>107297132</v>
+        <v>107297159</v>
       </c>
       <c r="B28" t="n">
-        <v>56395</v>
+        <v>89410</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3793,41 +3880,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>401917.91669213</v>
+        <v>401712.8266776437</v>
       </c>
       <c r="R28" t="n">
-        <v>7042274.431142438</v>
+        <v>7042299.970094102</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3896,7 +3976,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>107297129</v>
+        <v>107297145</v>
       </c>
       <c r="B29" t="n">
         <v>56395</v>
@@ -3932,21 +4012,18 @@
       <c r="I29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>402156.2769916554</v>
+        <v>401536.8770189329</v>
       </c>
       <c r="R29" t="n">
-        <v>7041918.456437748</v>
+        <v>7042457.364849822</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3989,6 +4066,11 @@
       <c r="AB29" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4015,7 +4097,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>107297112</v>
+        <v>107297144</v>
       </c>
       <c r="B30" t="n">
         <v>56395</v>
@@ -4051,11 +4133,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
@@ -4063,10 +4141,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>402317.1963612236</v>
+        <v>401583.6317653505</v>
       </c>
       <c r="R30" t="n">
-        <v>7042393.121363754</v>
+        <v>7042377.258336331</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4109,6 +4187,11 @@
       <c r="AB30" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4135,7 +4218,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>107297104</v>
+        <v>107297133</v>
       </c>
       <c r="B31" t="n">
         <v>56395</v>
@@ -4169,24 +4252,16 @@
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>402454.0826977493</v>
+        <v>402039.6008202027</v>
       </c>
       <c r="R31" t="n">
-        <v>7042785.784288489</v>
+        <v>7042461.980461054</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4255,7 +4330,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>107297135</v>
+        <v>107297153</v>
       </c>
       <c r="B32" t="n">
         <v>56395</v>
@@ -4293,7 +4368,7 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -4303,10 +4378,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>401919.762610087</v>
+        <v>401637.2024923927</v>
       </c>
       <c r="R32" t="n">
-        <v>7042436.169578565</v>
+        <v>7042575.830583951</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4380,10 +4455,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>107297122</v>
+        <v>87582649</v>
       </c>
       <c r="B33" t="n">
-        <v>56395</v>
+        <v>102173</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4396,34 +4471,43 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>1898</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Klådris</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Myricaria germanica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(L.) Desv.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Husådalen, Jmt</t>
+          <t>Husån, Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>402701.8743847082</v>
+        <v>402456.1552404187</v>
       </c>
       <c r="R33" t="n">
-        <v>7041917.396819607</v>
+        <v>7041830.142488331</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4450,7 +4534,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4460,12 +4544,17 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2023-03-14</t>
+          <t>2020-08-19</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Detalj. 1 tuva, den var utan blommor</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4480,19 +4569,19 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Lars-Åke Bäckström</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Benny Öwre</t>
+          <t>Britta Kjellberg</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>107297156</v>
+        <v>107297124</v>
       </c>
       <c r="B34" t="n">
         <v>56395</v>
@@ -4526,24 +4615,16 @@
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>401714.5618179612</v>
+        <v>402513.3883072233</v>
       </c>
       <c r="R34" t="n">
-        <v>7042704.387960113</v>
+        <v>7041959.811238208</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4586,11 +4667,6 @@
       <c r="AB34" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4617,7 +4693,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>107297130</v>
+        <v>107297129</v>
       </c>
       <c r="B35" t="n">
         <v>56395</v>
@@ -4651,16 +4727,23 @@
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>401881.7838074451</v>
+        <v>402156.2769916554</v>
       </c>
       <c r="R35" t="n">
-        <v>7042132.960267722</v>
+        <v>7041918.456437748</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4729,7 +4812,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>107297142</v>
+        <v>107297127</v>
       </c>
       <c r="B36" t="n">
         <v>56395</v>
@@ -4767,20 +4850,19 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>401624.999463517</v>
+        <v>402222.4641880621</v>
       </c>
       <c r="R36" t="n">
-        <v>7042354.527245898</v>
+        <v>7041887.369423535</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4823,11 +4905,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4854,7 +4931,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>107297149</v>
+        <v>107297125</v>
       </c>
       <c r="B37" t="n">
         <v>56395</v>
@@ -4888,20 +4965,16 @@
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>401525.2028119719</v>
+        <v>402442.9584605917</v>
       </c>
       <c r="R37" t="n">
-        <v>7042586.44113512</v>
+        <v>7041940.063587895</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4944,11 +5017,6 @@
       <c r="AB37" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4975,7 +5043,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>107297115</v>
+        <v>107297126</v>
       </c>
       <c r="B38" t="n">
         <v>56395</v>
@@ -5009,16 +5077,23 @@
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>402598.3616141003</v>
+        <v>402431.6437888646</v>
       </c>
       <c r="R38" t="n">
-        <v>7042060.020629185</v>
+        <v>7041892.133495972</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5087,7 +5162,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>107297127</v>
+        <v>107297109</v>
       </c>
       <c r="B39" t="n">
         <v>56395</v>
@@ -5125,7 +5200,7 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5134,10 +5209,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>402222.4641880621</v>
+        <v>402320.7597974094</v>
       </c>
       <c r="R39" t="n">
-        <v>7041887.369423535</v>
+        <v>7042436.364914293</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5206,7 +5281,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>107297155</v>
+        <v>107297105</v>
       </c>
       <c r="B40" t="n">
         <v>56395</v>
@@ -5254,10 +5329,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>401725.3742706156</v>
+        <v>402323.667188072</v>
       </c>
       <c r="R40" t="n">
-        <v>7042706.735810081</v>
+        <v>7042677.163613487</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5300,11 +5375,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5331,7 +5401,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>107297136</v>
+        <v>107297119</v>
       </c>
       <c r="B41" t="n">
         <v>56395</v>
@@ -5365,24 +5435,16 @@
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>401802.9903214265</v>
+        <v>402822.0443657695</v>
       </c>
       <c r="R41" t="n">
-        <v>7042422.78270114</v>
+        <v>7041997.765195946</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5425,11 +5487,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5456,7 +5513,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>107297150</v>
+        <v>107297108</v>
       </c>
       <c r="B42" t="n">
         <v>56395</v>
@@ -5492,7 +5549,11 @@
       <c r="I42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
@@ -5500,10 +5561,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>401590.484083398</v>
+        <v>402300.4574869781</v>
       </c>
       <c r="R42" t="n">
-        <v>7042570.12256683</v>
+        <v>7042460.227838016</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5546,11 +5607,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5577,7 +5633,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>107297125</v>
+        <v>107297110</v>
       </c>
       <c r="B43" t="n">
         <v>56395</v>
@@ -5611,16 +5667,23 @@
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>402442.9584605917</v>
+        <v>402329.8708277129</v>
       </c>
       <c r="R43" t="n">
-        <v>7041940.063587895</v>
+        <v>7042412.398069494</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5689,7 +5752,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>107297152</v>
+        <v>107297106</v>
       </c>
       <c r="B44" t="n">
         <v>56395</v>
@@ -5725,18 +5788,21 @@
       <c r="I44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>401597.2594558771</v>
+        <v>402237.9320551881</v>
       </c>
       <c r="R44" t="n">
-        <v>7042572.147899858</v>
+        <v>7042508.17923111</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5779,11 +5845,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5810,7 +5871,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>107297100</v>
+        <v>107297121</v>
       </c>
       <c r="B45" t="n">
         <v>56395</v>
@@ -5848,20 +5909,19 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>402483.3642529186</v>
+        <v>402726.1723272039</v>
       </c>
       <c r="R45" t="n">
-        <v>7042704.44790652</v>
+        <v>7041921.572066993</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5930,7 +5990,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>107297116</v>
+        <v>107297107</v>
       </c>
       <c r="B46" t="n">
         <v>56395</v>
@@ -5970,10 +6030,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>402657.2949376618</v>
+        <v>402290.3109071227</v>
       </c>
       <c r="R46" t="n">
-        <v>7042069.84134537</v>
+        <v>7042465.008287945</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -6042,7 +6102,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>107297101</v>
+        <v>107297099</v>
       </c>
       <c r="B47" t="n">
         <v>56395</v>
@@ -6082,10 +6142,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>402472.351400012</v>
+        <v>402561.3803218241</v>
       </c>
       <c r="R47" t="n">
-        <v>7042710.147751442</v>
+        <v>7042680.162944488</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6154,7 +6214,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>107297120</v>
+        <v>107297113</v>
       </c>
       <c r="B48" t="n">
         <v>56395</v>
@@ -6188,24 +6248,16 @@
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>402828.0983353688</v>
+        <v>402284.6929904713</v>
       </c>
       <c r="R48" t="n">
-        <v>7041976.125022997</v>
+        <v>7042354.787127241</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6274,7 +6326,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>107297102</v>
+        <v>107297111</v>
       </c>
       <c r="B49" t="n">
         <v>56395</v>
@@ -6308,23 +6360,16 @@
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>402437.0395959161</v>
+        <v>402322.8264822093</v>
       </c>
       <c r="R49" t="n">
-        <v>7042784.51866051</v>
+        <v>7042416.189506478</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6393,7 +6438,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>107297117</v>
+        <v>107297114</v>
       </c>
       <c r="B50" t="n">
         <v>56395</v>
@@ -6427,23 +6472,16 @@
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>402690.9958597691</v>
+        <v>402339.5343312943</v>
       </c>
       <c r="R50" t="n">
-        <v>7042074.175805828</v>
+        <v>7042289.638985216</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6512,7 +6550,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>107297157</v>
+        <v>107297112</v>
       </c>
       <c r="B51" t="n">
         <v>56395</v>
@@ -6560,10 +6598,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>401791.350727173</v>
+        <v>402317.1963612236</v>
       </c>
       <c r="R51" t="n">
-        <v>7042814.636954655</v>
+        <v>7042393.121363754</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6606,11 +6644,6 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6637,7 +6670,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>107297141</v>
+        <v>107297104</v>
       </c>
       <c r="B52" t="n">
         <v>56395</v>
@@ -6675,7 +6708,7 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N52" t="inlineStr"/>
@@ -6685,10 +6718,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>401689.5557609996</v>
+        <v>402454.0826977493</v>
       </c>
       <c r="R52" t="n">
-        <v>7042314.543681278</v>
+        <v>7042785.784288489</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6731,11 +6764,6 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6762,7 +6790,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>107297147</v>
+        <v>107297122</v>
       </c>
       <c r="B53" t="n">
         <v>56395</v>
@@ -6796,24 +6824,16 @@
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>401498.9477831295</v>
+        <v>402701.8743847082</v>
       </c>
       <c r="R53" t="n">
-        <v>7042518.873282764</v>
+        <v>7041917.396819607</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6856,11 +6876,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6887,7 +6902,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>107297131</v>
+        <v>107297115</v>
       </c>
       <c r="B54" t="n">
         <v>56395</v>
@@ -6921,23 +6936,16 @@
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P54" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>401848.5353151028</v>
+        <v>402598.3616141003</v>
       </c>
       <c r="R54" t="n">
-        <v>7042230.530400435</v>
+        <v>7042060.020629185</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -7006,10 +7014,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>107297159</v>
+        <v>107297100</v>
       </c>
       <c r="B55" t="n">
-        <v>89410</v>
+        <v>56395</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -7022,34 +7030,42 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>401712.8266776437</v>
+        <v>402483.3642529186</v>
       </c>
       <c r="R55" t="n">
-        <v>7042299.970094102</v>
+        <v>7042704.44790652</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7118,7 +7134,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>107297123</v>
+        <v>107297116</v>
       </c>
       <c r="B56" t="n">
         <v>56395</v>
@@ -7158,10 +7174,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>402656.2585365315</v>
+        <v>402657.2949376618</v>
       </c>
       <c r="R56" t="n">
-        <v>7041904.03877905</v>
+        <v>7042069.84134537</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7230,7 +7246,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>107297118</v>
+        <v>107297101</v>
       </c>
       <c r="B57" t="n">
         <v>56395</v>
@@ -7270,10 +7286,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>402765.4243331074</v>
+        <v>402472.351400012</v>
       </c>
       <c r="R57" t="n">
-        <v>7042049.107805526</v>
+        <v>7042710.147751442</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7342,7 +7358,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>107297145</v>
+        <v>107297120</v>
       </c>
       <c r="B58" t="n">
         <v>56395</v>
@@ -7378,7 +7394,11 @@
       <c r="I58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
@@ -7386,10 +7406,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>401536.8770189329</v>
+        <v>402828.0983353688</v>
       </c>
       <c r="R58" t="n">
-        <v>7042457.364849822</v>
+        <v>7041976.125022997</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7432,11 +7452,6 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7463,7 +7478,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>107297144</v>
+        <v>107297102</v>
       </c>
       <c r="B59" t="n">
         <v>56395</v>
@@ -7499,18 +7514,21 @@
       <c r="I59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P59" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>401583.6317653505</v>
+        <v>402437.0395959161</v>
       </c>
       <c r="R59" t="n">
-        <v>7042377.258336331</v>
+        <v>7042784.51866051</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7553,11 +7571,6 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7584,7 +7597,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>107297133</v>
+        <v>107297117</v>
       </c>
       <c r="B60" t="n">
         <v>56395</v>
@@ -7618,16 +7631,23 @@
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>402039.6008202027</v>
+        <v>402690.9958597691</v>
       </c>
       <c r="R60" t="n">
-        <v>7042461.980461054</v>
+        <v>7042074.175805828</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7696,7 +7716,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>107297126</v>
+        <v>107297123</v>
       </c>
       <c r="B61" t="n">
         <v>56395</v>
@@ -7730,23 +7750,16 @@
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P61" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>402431.6437888646</v>
+        <v>402656.2585365315</v>
       </c>
       <c r="R61" t="n">
-        <v>7041892.133495972</v>
+        <v>7041904.03877905</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7815,7 +7828,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>107297153</v>
+        <v>107297118</v>
       </c>
       <c r="B62" t="n">
         <v>56395</v>
@@ -7849,24 +7862,16 @@
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Husådalen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>401637.2024923927</v>
+        <v>402765.4243331074</v>
       </c>
       <c r="R62" t="n">
-        <v>7042575.830583951</v>
+        <v>7042049.107805526</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7909,11 +7914,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
